--- a/AutoFirmwareUpgrade/PQStandalone/TestData/PQStandalone_Ckt_ParamOnly/2M3U3I.xlsx
+++ b/AutoFirmwareUpgrade/PQStandalone/TestData/PQStandalone_Ckt_ParamOnly/2M3U3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A228BF15-1F5D-42E4-B4F5-E9FCF53E10D4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6FE27-1009-453B-AF30-C8BCA0752764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -3796,7 +3796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D905593-EE5F-4D39-9622-547A7D15955B}">
   <dimension ref="A1:C1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A280"/>
     </sheetView>
   </sheetViews>
@@ -9588,8 +9588,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10050,7 +10050,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
         <v>24</v>
@@ -10088,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W12" t="s">
         <v>25</v>
@@ -10123,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
